--- a/10v10/11/USQ-Cup/TXST_CAL_bracket.xlsx
+++ b/10v10/11/USQ-Cup/TXST_CAL_bracket.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raghu\quidditch\11\USQ-Cup\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raghu\quidditch\10v10\11\USQ-Cup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FEA1805-8343-45A1-9D12-B836CA9B4EFB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ECB1C46-E75A-440D-8ACB-834FBAA3587D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="98">
   <si>
     <t>A</t>
   </si>
@@ -70,9 +70,6 @@
   </si>
   <si>
     <t>TL</t>
-  </si>
-  <si>
-    <t>?</t>
   </si>
   <si>
     <t>TXST</t>
@@ -173,12 +170,168 @@
   <si>
     <t>CONNOR HUGHES</t>
   </si>
+  <si>
+    <t>0020</t>
+  </si>
+  <si>
+    <t>0057</t>
+  </si>
+  <si>
+    <t>0128</t>
+  </si>
+  <si>
+    <t>0150</t>
+  </si>
+  <si>
+    <t>3,14</t>
+  </si>
+  <si>
+    <t>0217</t>
+  </si>
+  <si>
+    <t>0237</t>
+  </si>
+  <si>
+    <t>0307</t>
+  </si>
+  <si>
+    <t>0350</t>
+  </si>
+  <si>
+    <t>R47</t>
+  </si>
+  <si>
+    <t>0447</t>
+  </si>
+  <si>
+    <t>0452</t>
+  </si>
+  <si>
+    <t>0538</t>
+  </si>
+  <si>
+    <t>0631</t>
+  </si>
+  <si>
+    <t>0641</t>
+  </si>
+  <si>
+    <t>0724</t>
+  </si>
+  <si>
+    <t>0730</t>
+  </si>
+  <si>
+    <t>0810</t>
+  </si>
+  <si>
+    <t>0814</t>
+  </si>
+  <si>
+    <t>0820</t>
+  </si>
+  <si>
+    <t>0901</t>
+  </si>
+  <si>
+    <t>0943</t>
+  </si>
+  <si>
+    <t>0956</t>
+  </si>
+  <si>
+    <t>1017</t>
+  </si>
+  <si>
+    <t>1105</t>
+  </si>
+  <si>
+    <t>1157</t>
+  </si>
+  <si>
+    <t>1205</t>
+  </si>
+  <si>
+    <t>1330</t>
+  </si>
+  <si>
+    <t>1428</t>
+  </si>
+  <si>
+    <t>1513</t>
+  </si>
+  <si>
+    <t>1600</t>
+  </si>
+  <si>
+    <t>1639</t>
+  </si>
+  <si>
+    <t>1647</t>
+  </si>
+  <si>
+    <t>1657</t>
+  </si>
+  <si>
+    <t>1747</t>
+  </si>
+  <si>
+    <t>1839</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1913</t>
+  </si>
+  <si>
+    <t>1937</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>2116</t>
+  </si>
+  <si>
+    <t>2128</t>
+  </si>
+  <si>
+    <t>2141</t>
+  </si>
+  <si>
+    <t>2215</t>
+  </si>
+  <si>
+    <t>2221</t>
+  </si>
+  <si>
+    <t>2247</t>
+  </si>
+  <si>
+    <t>2258</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2315</t>
+  </si>
+  <si>
+    <t>2335</t>
+  </si>
+  <si>
+    <t>2351</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -209,6 +362,25 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -411,7 +583,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -460,10 +632,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -471,15 +647,26 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -703,8 +890,8 @@
   </sheetPr>
   <dimension ref="A1:Z994"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="77" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView tabSelected="1" zoomScale="77" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -733,21 +920,21 @@
     <row r="1" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29"/>
       <c r="R1" s="2"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
@@ -760,142 +947,142 @@
     </row>
     <row r="2" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="J2" s="23"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="22">
+      <c r="C2" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="19"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="26">
         <f>COUNTIFS(A:A,"G*") + COUNTIFS(G:G,"G*")+COUNTIFS(M:M,"G*")+COUNTIFS(S:S,"G*")</f>
         <v>13</v>
       </c>
-      <c r="M2" s="23"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="28" t="str">
+      <c r="M2" s="19"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="27" t="str">
         <f>IF(COUNTIF($A$7:$X$59,"RCA"),"*","")&amp;IF(COUNTIF($A$7:$X$59,"OCA"),"^","")&amp;IF(COUNTIF($R$7:$X$59,"2CA"),"!","")</f>
         <v>*</v>
       </c>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="29" t="str">
+      <c r="P2" s="19"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="18" t="str">
         <f>CONCATENATE(LEN(O2)*30+L2*10,O2)</f>
         <v>160*</v>
       </c>
-      <c r="S2" s="23"/>
-      <c r="T2" s="23"/>
-      <c r="U2" s="23"/>
-      <c r="V2" s="23"/>
-      <c r="W2" s="24"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="19"/>
+      <c r="U2" s="19"/>
+      <c r="V2" s="19"/>
+      <c r="W2" s="20"/>
       <c r="X2" s="1"/>
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="27"/>
-      <c r="O3" s="25"/>
-      <c r="P3" s="26"/>
-      <c r="Q3" s="27"/>
-      <c r="R3" s="25"/>
-      <c r="S3" s="26"/>
-      <c r="T3" s="26"/>
-      <c r="U3" s="26"/>
-      <c r="V3" s="26"/>
-      <c r="W3" s="27"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="23"/>
+      <c r="R3" s="21"/>
+      <c r="S3" s="22"/>
+      <c r="T3" s="22"/>
+      <c r="U3" s="22"/>
+      <c r="V3" s="22"/>
+      <c r="W3" s="23"/>
       <c r="X3" s="1"/>
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
     </row>
     <row r="4" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="J4" s="23"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="22">
+      <c r="C4" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" s="19"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="26">
         <f>COUNTIFS(D:D,"G*")+COUNTIFS(J:J,"G*")+COUNTIFS(P:P,"G*")+COUNTIFS(V:V,"G*")</f>
         <v>10</v>
       </c>
-      <c r="M4" s="23"/>
-      <c r="N4" s="24"/>
-      <c r="O4" s="28" t="str">
+      <c r="M4" s="19"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="27" t="str">
         <f>IF(COUNTIF($A$7:$R$59,"RCB"),"*","")&amp;IF(COUNTIF($A$7:$R$59,"OCB"),"^","")&amp;IF(COUNTIF($A$7:$R$59,"2CB"),"!","")</f>
         <v/>
       </c>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="24"/>
-      <c r="R4" s="29" t="str">
+      <c r="P4" s="19"/>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="18" t="str">
         <f>CONCATENATE(LEN(O4)*30+L4*10,O4)</f>
         <v>100</v>
       </c>
-      <c r="S4" s="23"/>
-      <c r="T4" s="23"/>
-      <c r="U4" s="23"/>
-      <c r="V4" s="23"/>
-      <c r="W4" s="24"/>
+      <c r="S4" s="19"/>
+      <c r="T4" s="19"/>
+      <c r="U4" s="19"/>
+      <c r="V4" s="19"/>
+      <c r="W4" s="20"/>
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
     </row>
     <row r="5" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="26"/>
-      <c r="N5" s="27"/>
-      <c r="O5" s="25"/>
-      <c r="P5" s="26"/>
-      <c r="Q5" s="27"/>
-      <c r="R5" s="25"/>
-      <c r="S5" s="26"/>
-      <c r="T5" s="26"/>
-      <c r="U5" s="26"/>
-      <c r="V5" s="26"/>
-      <c r="W5" s="27"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="23"/>
+      <c r="R5" s="21"/>
+      <c r="S5" s="22"/>
+      <c r="T5" s="22"/>
+      <c r="U5" s="22"/>
+      <c r="V5" s="22"/>
+      <c r="W5" s="23"/>
       <c r="X5" s="1"/>
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
@@ -933,42 +1120,58 @@
       <c r="B7" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="5"/>
+      <c r="C7" s="30" t="s">
+        <v>46</v>
+      </c>
       <c r="D7" s="6"/>
       <c r="E7" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="8"/>
+      <c r="F7" s="31" t="s">
+        <v>47</v>
+      </c>
       <c r="G7" s="3"/>
       <c r="H7" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I7" s="5"/>
+      <c r="I7" s="30" t="s">
+        <v>48</v>
+      </c>
       <c r="J7" s="6"/>
       <c r="K7" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="L7" s="8"/>
+      <c r="L7" s="31" t="s">
+        <v>49</v>
+      </c>
       <c r="M7" s="3"/>
       <c r="N7" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="O7" s="5"/>
+      <c r="O7" s="30" t="s">
+        <v>51</v>
+      </c>
       <c r="P7" s="6"/>
       <c r="Q7" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="R7" s="8"/>
+      <c r="R7" s="31" t="s">
+        <v>52</v>
+      </c>
       <c r="S7" s="3"/>
       <c r="T7" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="U7" s="5"/>
+      <c r="U7" s="30" t="s">
+        <v>53</v>
+      </c>
       <c r="V7" s="6"/>
       <c r="W7" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="X7" s="8"/>
+      <c r="X7" s="31" t="s">
+        <v>54</v>
+      </c>
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
     </row>
@@ -987,7 +1190,7 @@
         <v>20</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G8" s="9" t="s">
         <v>3</v>
@@ -1002,8 +1205,8 @@
       <c r="K8" s="10">
         <v>20</v>
       </c>
-      <c r="L8" s="11" t="s">
-        <v>32</v>
+      <c r="L8" s="32" t="s">
+        <v>50</v>
       </c>
       <c r="M8" s="9" t="s">
         <v>5</v>
@@ -1069,46 +1272,64 @@
       <c r="Z9" s="1"/>
     </row>
     <row r="10" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
+      <c r="A10" s="33" t="s">
+        <v>55</v>
+      </c>
       <c r="B10" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="5"/>
+      <c r="C10" s="30" t="s">
+        <v>56</v>
+      </c>
       <c r="D10" s="6"/>
       <c r="E10" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="F10" s="8"/>
+      <c r="F10" s="31" t="s">
+        <v>57</v>
+      </c>
       <c r="G10" s="3"/>
       <c r="H10" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I10" s="5"/>
+      <c r="I10" s="30" t="s">
+        <v>58</v>
+      </c>
       <c r="J10" s="6"/>
       <c r="K10" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="L10" s="8"/>
+      <c r="L10" s="31" t="s">
+        <v>59</v>
+      </c>
       <c r="M10" s="3"/>
       <c r="N10" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="O10" s="5"/>
+      <c r="O10" s="30" t="s">
+        <v>60</v>
+      </c>
       <c r="P10" s="6"/>
       <c r="Q10" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="R10" s="8"/>
+      <c r="R10" s="31" t="s">
+        <v>61</v>
+      </c>
       <c r="S10" s="3"/>
       <c r="T10" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="U10" s="5"/>
+      <c r="U10" s="30" t="s">
+        <v>62</v>
+      </c>
       <c r="V10" s="6"/>
       <c r="W10" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="X10" s="8"/>
+      <c r="X10" s="31" t="s">
+        <v>63</v>
+      </c>
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
     </row>
@@ -1179,7 +1400,7 @@
         <v>69</v>
       </c>
       <c r="X11" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
@@ -1217,42 +1438,58 @@
       <c r="B13" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="5"/>
+      <c r="C13" s="30" t="s">
+        <v>64</v>
+      </c>
       <c r="D13" s="6"/>
       <c r="E13" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="F13" s="8"/>
+      <c r="F13" s="31" t="s">
+        <v>65</v>
+      </c>
       <c r="G13" s="3"/>
       <c r="H13" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I13" s="5"/>
+      <c r="I13" s="30" t="s">
+        <v>66</v>
+      </c>
       <c r="J13" s="6"/>
       <c r="K13" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="L13" s="8"/>
+      <c r="L13" s="31" t="s">
+        <v>67</v>
+      </c>
       <c r="M13" s="3"/>
       <c r="N13" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="O13" s="5"/>
+      <c r="O13" s="30" t="s">
+        <v>68</v>
+      </c>
       <c r="P13" s="6"/>
       <c r="Q13" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="R13" s="8"/>
+      <c r="R13" s="31" t="s">
+        <v>69</v>
+      </c>
       <c r="S13" s="3"/>
       <c r="T13" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="U13" s="5"/>
+      <c r="U13" s="30" t="s">
+        <v>70</v>
+      </c>
       <c r="V13" s="6"/>
       <c r="W13" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="X13" s="8"/>
+      <c r="X13" s="31" t="s">
+        <v>71</v>
+      </c>
       <c r="Y13" s="1"/>
       <c r="Z13" s="1"/>
     </row>
@@ -1298,7 +1535,7 @@
         <v>3</v>
       </c>
       <c r="O14" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P14" s="9" t="s">
         <v>11</v>
@@ -1363,44 +1600,60 @@
       <c r="B16" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="5"/>
+      <c r="C16" s="30" t="s">
+        <v>72</v>
+      </c>
       <c r="D16" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="F16" s="8"/>
+      <c r="F16" s="31" t="s">
+        <v>73</v>
+      </c>
       <c r="G16" s="3"/>
       <c r="H16" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I16" s="5"/>
+      <c r="I16" s="30" t="s">
+        <v>74</v>
+      </c>
       <c r="J16" s="6"/>
       <c r="K16" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="L16" s="8"/>
+      <c r="L16" s="31" t="s">
+        <v>75</v>
+      </c>
       <c r="M16" s="3"/>
       <c r="N16" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="O16" s="5"/>
+      <c r="O16" s="30" t="s">
+        <v>76</v>
+      </c>
       <c r="P16" s="6"/>
       <c r="Q16" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="R16" s="8"/>
+      <c r="R16" s="31" t="s">
+        <v>77</v>
+      </c>
       <c r="S16" s="3"/>
       <c r="T16" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="U16" s="5"/>
+      <c r="U16" s="30" t="s">
+        <v>78</v>
+      </c>
       <c r="V16" s="6"/>
       <c r="W16" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="X16" s="8"/>
+      <c r="X16" s="31" t="s">
+        <v>79</v>
+      </c>
       <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
     </row>
@@ -1505,50 +1758,66 @@
       <c r="Z18" s="1"/>
     </row>
     <row r="19" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>35</v>
-      </c>
+      <c r="A19" s="3"/>
       <c r="B19" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="6"/>
+      <c r="C19" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="D19" s="34" t="s">
+        <v>34</v>
+      </c>
       <c r="E19" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="F19" s="8"/>
+      <c r="F19" s="31" t="s">
+        <v>81</v>
+      </c>
       <c r="G19" s="3"/>
       <c r="H19" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I19" s="5"/>
+      <c r="I19" s="30" t="s">
+        <v>82</v>
+      </c>
       <c r="J19" s="6"/>
       <c r="K19" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="L19" s="8"/>
+      <c r="L19" s="31" t="s">
+        <v>83</v>
+      </c>
       <c r="M19" s="3"/>
       <c r="N19" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="O19" s="5"/>
+      <c r="O19" s="30" t="s">
+        <v>84</v>
+      </c>
       <c r="P19" s="6"/>
       <c r="Q19" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="R19" s="8"/>
+      <c r="R19" s="31" t="s">
+        <v>85</v>
+      </c>
       <c r="S19" s="3"/>
       <c r="T19" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="U19" s="5"/>
+      <c r="U19" s="30" t="s">
+        <v>86</v>
+      </c>
       <c r="V19" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="W19" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="X19" s="8"/>
+      <c r="X19" s="31" t="s">
+        <v>87</v>
+      </c>
       <c r="Y19" s="1"/>
       <c r="Z19" s="1"/>
     </row>
@@ -1609,8 +1878,8 @@
       <c r="V20" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="W20" s="10" t="s">
-        <v>13</v>
+      <c r="W20" s="10">
+        <v>11</v>
       </c>
       <c r="X20" s="11">
         <v>88</v>
@@ -1651,46 +1920,62 @@
       <c r="B22" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C22" s="5"/>
+      <c r="C22" s="30" t="s">
+        <v>88</v>
+      </c>
       <c r="D22" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="F22" s="8"/>
+      <c r="F22" s="31" t="s">
+        <v>89</v>
+      </c>
       <c r="G22" s="3"/>
       <c r="H22" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I22" s="5"/>
+      <c r="I22" s="30" t="s">
+        <v>90</v>
+      </c>
       <c r="J22" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="L22" s="8"/>
+      <c r="L22" s="31" t="s">
+        <v>91</v>
+      </c>
       <c r="M22" s="3"/>
       <c r="N22" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="O22" s="5"/>
+      <c r="O22" s="30" t="s">
+        <v>92</v>
+      </c>
       <c r="P22" s="6"/>
       <c r="Q22" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="R22" s="8"/>
+      <c r="R22" s="31" t="s">
+        <v>93</v>
+      </c>
       <c r="S22" s="3"/>
       <c r="T22" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="U22" s="5"/>
+      <c r="U22" s="30" t="s">
+        <v>94</v>
+      </c>
       <c r="V22" s="6"/>
       <c r="W22" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="X22" s="8"/>
+      <c r="X22" s="31" t="s">
+        <v>95</v>
+      </c>
       <c r="Y22" s="1"/>
       <c r="Z22" s="1"/>
     </row>
@@ -1720,13 +2005,13 @@
         <v>17</v>
       </c>
       <c r="I23" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J23" s="9" t="s">
         <v>4</v>
       </c>
       <c r="K23" s="10">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="L23" s="11"/>
       <c r="M23" s="9" t="s">
@@ -1797,12 +2082,16 @@
       <c r="B25" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C25" s="5"/>
+      <c r="C25" s="30" t="s">
+        <v>96</v>
+      </c>
       <c r="D25" s="6"/>
       <c r="E25" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="F25" s="8"/>
+      <c r="F25" s="31" t="s">
+        <v>97</v>
+      </c>
       <c r="G25" s="3"/>
       <c r="H25" s="4" t="s">
         <v>0</v>
@@ -29028,13 +29317,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="R2:W3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:H5"/>
-    <mergeCell ref="I4:K5"/>
-    <mergeCell ref="L4:N5"/>
-    <mergeCell ref="O4:Q5"/>
-    <mergeCell ref="R4:W5"/>
     <mergeCell ref="C1:H1"/>
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="L1:N1"/>
@@ -29044,6 +29326,13 @@
     <mergeCell ref="I2:K3"/>
     <mergeCell ref="L2:N3"/>
     <mergeCell ref="O2:Q3"/>
+    <mergeCell ref="R2:W3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:H5"/>
+    <mergeCell ref="I4:K5"/>
+    <mergeCell ref="L4:N5"/>
+    <mergeCell ref="O4:Q5"/>
+    <mergeCell ref="R4:W5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -29058,7 +29347,7 @@
   </sheetPr>
   <dimension ref="A1:C102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -29088,7 +29377,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -29096,7 +29385,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -29104,10 +29393,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -29142,7 +29431,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10" s="12"/>
     </row>
@@ -29152,7 +29441,7 @@
       </c>
       <c r="B11" s="17"/>
       <c r="C11" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -29167,7 +29456,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -29175,7 +29464,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" s="12"/>
     </row>
@@ -29239,7 +29528,7 @@
         <v>20</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C23" s="12"/>
     </row>
@@ -29248,7 +29537,7 @@
         <v>21</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
@@ -29256,7 +29545,7 @@
         <v>22</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C25" s="12"/>
     </row>
@@ -29265,7 +29554,7 @@
         <v>23</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C26" s="12"/>
     </row>
@@ -29274,7 +29563,7 @@
         <v>24</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C27" s="12"/>
     </row>
@@ -29283,7 +29572,7 @@
         <v>25</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
@@ -29297,7 +29586,7 @@
         <v>27</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C30" s="12"/>
     </row>
@@ -29350,7 +29639,7 @@
         <v>35</v>
       </c>
       <c r="B38" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
@@ -29443,7 +29732,7 @@
         <v>50</v>
       </c>
       <c r="B53" s="17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
@@ -29559,7 +29848,7 @@
         <v>69</v>
       </c>
       <c r="B72" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
@@ -29627,7 +29916,7 @@
         <v>80</v>
       </c>
       <c r="B83" s="17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
@@ -29647,7 +29936,7 @@
         <v>83</v>
       </c>
       <c r="B86" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
@@ -29680,7 +29969,7 @@
       </c>
       <c r="B91" s="17"/>
       <c r="C91" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
